--- a/Output/Reach_Actions_Restoration_Unacceptable_and_AtRisk.xlsx
+++ b/Output/Reach_Actions_Restoration_Unacceptable_and_AtRisk.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF126"/>
+  <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +600,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -610,31 +610,21 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
@@ -752,7 +742,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -762,31 +752,21 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
@@ -904,7 +884,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -914,31 +894,21 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
@@ -1056,7 +1026,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1066,31 +1036,21 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
@@ -1208,7 +1168,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1218,31 +1178,21 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
@@ -1360,7 +1310,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1370,31 +1320,21 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
@@ -1512,7 +1452,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1522,31 +1462,21 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="X8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
@@ -1601,11 +1531,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1624,7 +1554,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1659,54 +1589,44 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,NA</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>Holding and Maturation,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Off-Channel-Side-Channels</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="Z9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -1715,11 +1635,11 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1816,7 +1736,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1826,31 +1746,21 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement</t>
         </is>
       </c>
       <c r="X10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
@@ -1968,7 +1878,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1978,31 +1888,21 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
@@ -2120,7 +2020,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2130,31 +2030,21 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -2272,7 +2162,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2282,31 +2172,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
@@ -2424,7 +2304,7 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2434,31 +2314,21 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
@@ -2513,11 +2383,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2536,12 +2406,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2576,7 +2446,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2586,31 +2456,21 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
@@ -2728,7 +2588,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2738,31 +2598,21 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
@@ -2880,7 +2730,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2890,31 +2740,21 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
@@ -3032,7 +2872,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -3042,31 +2882,21 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
@@ -3184,7 +3014,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3194,31 +3024,21 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
@@ -3336,7 +3156,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3346,31 +3166,21 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
@@ -3488,7 +3298,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3498,31 +3308,21 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
@@ -3640,7 +3440,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3650,31 +3450,21 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
@@ -3792,7 +3582,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3802,31 +3592,21 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
@@ -3885,7 +3665,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3944,7 +3724,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -3957,28 +3737,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
@@ -4037,7 +3807,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4096,7 +3866,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -4109,28 +3879,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
@@ -4189,7 +3949,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4248,7 +4008,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -4261,28 +4021,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Summer Rearing,Adult Migration,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
@@ -4341,7 +4091,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4400,7 +4150,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -4413,24 +4163,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X27">
@@ -4493,7 +4233,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -4552,7 +4292,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -4565,24 +4305,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>Fry,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X28">
@@ -4714,31 +4444,21 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement,UplandManagement</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement,UplandManagement</t>
         </is>
       </c>
       <c r="X29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
@@ -4866,31 +4586,21 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
@@ -5018,31 +4728,21 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X31">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
@@ -5170,31 +4870,21 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement,UplandManagement</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,UplandManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement,UplandManagement</t>
         </is>
       </c>
       <c r="X32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
@@ -5322,31 +5012,21 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
@@ -5401,7 +5081,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E34">
@@ -5419,7 +5099,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5434,7 +5114,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -5444,7 +5124,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -5459,12 +5139,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -5474,39 +5154,29 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-UndercutBanks,Cover-Boulders,Temperature-AdultHolding</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing,Holding and Maturation,BT Natal Rearing</t>
+          <t>Winter Rearing,Fry,Summer Rearing,BT Subadult Rearing,Adult Migration,Spawning and Incubation</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks,Temperature-AdultHolding</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-Boulders,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="Z34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -5515,11 +5185,11 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>Cover-Boulders,Off-Channel-Side-Channels,Temperature-AdultHolding</t>
+          <t>Cover-Boulders,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="AC34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -5553,7 +5223,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E35">
@@ -5571,7 +5241,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5596,7 +5266,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5616,7 +5286,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -5626,31 +5296,21 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
@@ -5705,7 +5365,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E36">
@@ -5723,7 +5383,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5748,7 +5408,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5768,7 +5428,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -5778,31 +5438,21 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,NA</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X36">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
@@ -5857,7 +5507,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead</t>
         </is>
       </c>
       <c r="E37">
@@ -5875,7 +5525,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -5900,7 +5550,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5920,7 +5570,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -5930,31 +5580,21 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Stability,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X37">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
@@ -6072,7 +5712,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -6082,31 +5722,21 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X38">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
@@ -6165,7 +5795,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6209,7 +5839,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6224,7 +5854,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -6234,31 +5864,21 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
@@ -6317,7 +5937,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6376,7 +5996,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -6389,28 +6009,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Spawning and Incubation,Summer Rearing</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
@@ -6465,11 +6075,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HQ_steelhead,HQ_bull_trout,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_steelhead,</t>
         </is>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6483,7 +6093,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6493,12 +6103,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -6508,7 +6118,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Steelhead,Bull_Trout</t>
+          <t>Steelhead</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6533,36 +6143,26 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian</t>
+          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,NA</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Cover-UndercutBanks</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,NA</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Fry,BT Natal Rearing</t>
+          <t>BT Subadult Rearing,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="X41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
@@ -6690,31 +6290,21 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
@@ -6842,31 +6432,21 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
@@ -6984,7 +6564,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelModification,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -6994,31 +6574,21 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelModification,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelModification,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
@@ -7136,7 +6706,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -7146,27 +6716,17 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X45">
@@ -7225,11 +6785,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -7253,7 +6813,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -7283,46 +6843,36 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing,NA</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement,NA</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X46">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
@@ -7440,7 +6990,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -7450,31 +7000,21 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
@@ -7592,7 +7132,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -7602,31 +7142,21 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
@@ -7744,7 +7274,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -7754,31 +7284,21 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X49">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
@@ -7896,7 +7416,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -7906,31 +7426,21 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
@@ -8048,7 +7558,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -8058,31 +7568,21 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
@@ -8200,7 +7700,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -8210,31 +7710,21 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y52" t="inlineStr">
         <is>
@@ -8352,7 +7842,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -8362,31 +7852,21 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
@@ -8514,31 +7994,21 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="X54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
@@ -8593,11 +8063,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HQ_steelhead</t>
+          <t>HQ_steelhead,LF_steelhead</t>
         </is>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -8621,7 +8091,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -8666,31 +8136,21 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Fry,Holding and Maturation,Spawning and Incubation,Winter Rearing</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement</t>
         </is>
       </c>
       <c r="X55">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
@@ -8808,7 +8268,7 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -8821,28 +8281,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
@@ -8960,7 +8410,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -8973,28 +8423,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X57">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
@@ -9112,7 +8552,7 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -9125,28 +8565,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X58">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
@@ -9264,7 +8694,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -9277,28 +8707,18 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X59">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
@@ -9429,19 +8849,9 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -9505,7 +8915,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E61">
@@ -9523,7 +8933,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -9548,7 +8958,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -9568,7 +8978,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -9578,31 +8988,21 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,NA</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
@@ -9657,11 +9057,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -9675,7 +9075,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -9690,7 +9090,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -9700,7 +9100,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -9720,7 +9120,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -9730,31 +9130,21 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Non-Spawning</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
@@ -9809,7 +9199,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E63">
@@ -9827,7 +9217,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -9852,7 +9242,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -9872,7 +9262,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -9882,31 +9272,21 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,NA</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
@@ -9961,7 +9341,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E64">
@@ -9979,7 +9359,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -9994,7 +9374,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -10004,7 +9384,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -10024,7 +9404,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -10034,31 +9414,21 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout,Contaminants</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
@@ -10113,7 +9483,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E65">
@@ -10131,7 +9501,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -10146,7 +9516,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -10156,7 +9526,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -10176,7 +9546,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -10186,31 +9556,21 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
@@ -10265,7 +9625,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E66">
@@ -10283,7 +9643,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -10298,7 +9658,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -10308,7 +9668,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -10328,7 +9688,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -10338,31 +9698,21 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Fry,BT Natal Rearing,Adult Migration</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X66">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
@@ -10417,7 +9767,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E67">
@@ -10435,7 +9785,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -10450,7 +9800,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -10460,7 +9810,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -10480,7 +9830,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -10490,31 +9840,21 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
@@ -10569,7 +9909,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E68">
@@ -10587,7 +9927,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -10602,7 +9942,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -10612,7 +9952,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -10632,7 +9972,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -10642,31 +9982,21 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Adult Migration,Fry</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X68">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
@@ -10721,7 +10051,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HQ_spring_chinook,HQ_steelhead,HQ_bull_trout,LF_spring_chinook,LF_bull_trout</t>
+          <t>HQ_spring_chinook,HQ_steelhead,LF_spring_chinook</t>
         </is>
       </c>
       <c r="E69">
@@ -10739,7 +10069,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -10754,7 +10084,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -10764,7 +10094,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -10784,7 +10114,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -10794,31 +10124,21 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,NA</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>Stability,CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,NA</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Spawning and Incubation</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,BrookTroutManagement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
@@ -10936,7 +10256,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -10946,31 +10266,21 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
@@ -11088,7 +10398,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -11098,31 +10408,21 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
@@ -11240,7 +10540,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -11250,31 +10550,21 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
@@ -11392,49 +10682,39 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="Z73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
@@ -11443,11 +10723,11 @@
       </c>
       <c r="AB73" t="inlineStr">
         <is>
-          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Flow-SummerBaseFlow,Off-Channel-Floodplain,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="AC73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -11544,7 +10824,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -11554,31 +10834,21 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X74">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
@@ -11696,7 +10966,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -11706,31 +10976,21 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
@@ -11848,7 +11108,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,Entrainment/StrandingMitigation</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,EntrainmentandStrandingMitigation</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -11858,31 +11118,21 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,Entrainment/StrandingMitigation</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,EntrainmentandStrandingMitigation</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement,Entrainment/StrandingMitigation</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement,EntrainmentandStrandingMitigation</t>
         </is>
       </c>
       <c r="X76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
@@ -12000,7 +11250,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -12010,31 +11260,21 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
@@ -12152,7 +11392,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -12162,31 +11402,21 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X78">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
@@ -12304,7 +11534,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -12314,31 +11544,21 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W79" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X79">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
@@ -12456,7 +11676,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -12466,31 +11686,21 @@
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y80" t="inlineStr">
         <is>
@@ -12608,7 +11818,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -12618,31 +11828,21 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W81" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
@@ -12760,7 +11960,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -12770,31 +11970,21 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W82" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,InstreamFlowAcquisition,Protection,Restoration,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,InstreamFlowEnhancement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
@@ -12912,7 +12102,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -12922,31 +12112,21 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W83" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X83">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
@@ -13064,7 +12244,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -13074,31 +12254,21 @@
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X84">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
@@ -13216,7 +12386,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -13226,31 +12396,21 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W85" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X85">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
@@ -13363,12 +12523,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -13378,27 +12538,17 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement,NA</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement,NA</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W86" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X86">
@@ -13406,11 +12556,11 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools</t>
         </is>
       </c>
       <c r="Z86">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
@@ -13432,11 +12582,11 @@
       </c>
       <c r="AE86" t="inlineStr">
         <is>
-          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing</t>
+          <t>Stability,Off-Channel-Floodplain,Off-Channel-Side-Channels,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools</t>
         </is>
       </c>
       <c r="AF86">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -13520,7 +12670,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -13530,27 +12680,17 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Spawning and Incubation,Summer Rearing,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X87">
@@ -13672,49 +12812,39 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Fry,Summer Rearing</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Winter Rearing,Fry</t>
         </is>
       </c>
       <c r="W88" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Riparian,Temperature-Rearing,Cover-UndercutBanks,Pools-DeepPools,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="Z88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
@@ -13723,11 +12853,11 @@
       </c>
       <c r="AB88" t="inlineStr">
         <is>
-          <t>Riparian</t>
+          <t>Riparian,Cover-UndercutBanks,Temperature-AdultHolding</t>
         </is>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD88" t="inlineStr">
         <is>
@@ -13736,11 +12866,11 @@
       </c>
       <c r="AE88" t="inlineStr">
         <is>
-          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Stability,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing,Pools-DeepPools</t>
         </is>
       </c>
       <c r="AF88">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -13824,7 +12954,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -13834,31 +12964,21 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>Summer Rearing</t>
+          <t>Summer Rearing,Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W89" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
@@ -13976,7 +13096,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -13986,31 +13106,21 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X90">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
@@ -14128,7 +13238,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
@@ -14138,31 +13248,21 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W91" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
@@ -14280,7 +13380,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
@@ -14290,31 +13390,21 @@
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W92" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
@@ -14432,7 +13522,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -14442,31 +13532,21 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
@@ -14584,7 +13664,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
@@ -14594,31 +13674,21 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W94" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
@@ -14736,7 +13806,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
@@ -14746,27 +13816,17 @@
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W95" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X95">
@@ -14888,7 +13948,7 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
@@ -14898,31 +13958,21 @@
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Spawning and Incubation,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X96">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
@@ -15050,31 +14100,21 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W97" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X97">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
@@ -15202,31 +14242,21 @@
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W98" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
@@ -15354,31 +14384,21 @@
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W99" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,FloodplainReconnection,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
@@ -15506,31 +14526,21 @@
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>Winter Rearing,Fry</t>
+          <t>Winter Rearing,Adult Migration,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W100" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,BankRestoration,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,BankRestoration,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X100">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
@@ -15658,31 +14668,21 @@
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W101" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowAcquisition,Protection,Restoration,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,BankRestoration,FloodplainReconnection,InstreamFlowEnhancement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
@@ -15810,31 +14810,21 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W102" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X102">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
@@ -15962,31 +14952,21 @@
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
@@ -16114,31 +15094,21 @@
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X104">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
@@ -16266,31 +15236,21 @@
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W105" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X105">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
@@ -16418,31 +15378,21 @@
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W106" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,RiparianRestorationandManagement,FineSedimentManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X106">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
@@ -16570,31 +15520,21 @@
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Holding and Maturation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W107" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,BankRestoration,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X107">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
@@ -16649,11 +15589,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>HQ_steelhead,LF_steelhead</t>
+          <t>HQ_steelhead</t>
         </is>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -16677,7 +15617,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -16722,31 +15662,21 @@
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>Fry</t>
+          <t>Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W108" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowAcquisition,Protection,Restoration,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,InstreamFlowEnhancement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X108">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
@@ -16864,7 +15794,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
@@ -16877,24 +15807,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W109" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,EnhanceFoodResources,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X109">
@@ -17016,7 +15936,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -17029,24 +15949,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W110" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="X110">
@@ -17168,7 +16078,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -17181,24 +16091,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W111" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="X111">
@@ -17320,7 +16220,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -17333,24 +16233,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W112" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="X112">
@@ -17472,7 +16362,7 @@
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
@@ -17485,24 +16375,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W113" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,EnhanceFoodResources,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X113">
@@ -17624,7 +16504,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -17637,24 +16517,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W114" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,EnhanceFoodResources,FineSedimentManagement</t>
         </is>
       </c>
       <c r="X114">
@@ -17776,7 +16646,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -17789,24 +16659,14 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>Winter Rearing</t>
+          <t>Winter Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W115" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="X115">
@@ -17928,7 +16788,7 @@
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -17938,27 +16798,17 @@
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W116" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X116">
@@ -18002,159 +16852,149 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Methow River McFarland 02</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Methow River-McFarland Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LF_steelhead</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Spring_Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
+        </is>
+      </c>
+      <c r="W117" t="inlineStr">
+        <is>
+          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection,BrookTroutManagement</t>
+        </is>
+      </c>
+      <c r="X117">
+        <v>9</v>
+      </c>
+      <c r="Y117" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+        </is>
+      </c>
+      <c r="Z117">
+        <v>5</v>
+      </c>
+      <c r="AA117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,BrookTrout</t>
+        </is>
+      </c>
+      <c r="AC117">
+        <v>4</v>
+      </c>
+      <c r="AD117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>Off-Channel-Floodplain</t>
+        </is>
+      </c>
+      <c r="AF117">
         <v>1</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>Steelhead</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>Fry</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
-        </is>
-      </c>
-      <c r="X117">
-        <v>7</v>
-      </c>
-      <c r="Y117" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="Z117">
-        <v>4</v>
-      </c>
-      <c r="AA117" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>Cover-Wood,Off-Channel-Side-Channels</t>
-        </is>
-      </c>
-      <c r="AC117">
-        <v>2</v>
-      </c>
-      <c r="AD117" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AE117" t="inlineStr">
-        <is>
-          <t>CoarseSubstrate,Off-Channel-Floodplain</t>
-        </is>
-      </c>
-      <c r="AF117">
-        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -18169,7 +17009,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E118">
@@ -18202,7 +17042,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -18212,7 +17052,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -18227,42 +17067,32 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain</t>
+          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection</t>
+          <t>WaterQualityImprovement,ChannelModification,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,BrookTrout</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,BrookTroutManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing</t>
+          <t>Spawning and Incubation,Winter Rearing,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W118" t="inlineStr">
         <is>
-          <t>BankRestoration,ChannelComplexityRestoration,ChannelModification,FineSedimentManagement,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,WaterQualityImprovement,FloodplainReconnection,BrookTroutManagement</t>
+          <t>WaterQualityImprovement,ChannelModification,InstreamFlowEnhancement,UplandManagement,SideChannelandOff-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection,BrookTroutManagement</t>
         </is>
       </c>
       <c r="X118">
@@ -18270,25 +17100,25 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain,BrookTrout</t>
         </is>
       </c>
       <c r="Z118">
+        <v>7</v>
+      </c>
+      <c r="AA118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>Contaminants,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+        </is>
+      </c>
+      <c r="AC118">
         <v>5</v>
       </c>
-      <c r="AA118" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>%Fines/Embeddedness,Off-Channel-Side-Channels,Temperature-AdultSpawning,BrookTrout</t>
-        </is>
-      </c>
-      <c r="AC118">
-        <v>4</v>
-      </c>
       <c r="AD118" t="inlineStr">
         <is>
           <t>yes</t>
@@ -18296,17 +17126,17 @@
       </c>
       <c r="AE118" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain</t>
+          <t>Flow-SummerBaseFlow,Cover-Wood</t>
         </is>
       </c>
       <c r="AF118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 08</t>
+          <t>Wenatchee River Beaver 07</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -18316,16 +17146,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Wenatchee River-Beaver Creek</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead,LF_bull_trout</t>
+          <t>LF_spring_chinook,LF_steelhead</t>
         </is>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -18354,7 +17184,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -18364,12 +17194,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead,Bull_Trout</t>
+          <t>Spring_Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -18379,54 +17209,44 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>WaterQualityImprovement,ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>BrookTrout,Contaminants</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>BrookTroutManagement,WaterQualityImprovement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>Spawning and Incubation,Winter Rearing,Fry</t>
+          <t>Winter Rearing,Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W119" t="inlineStr">
         <is>
-          <t>WaterQualityImprovement,ChannelModification,InstreamFlowAcquisition,Protection,Restoration,UplandManagement,SideChannel/Off-ChannelHabitatRestoration,ChannelComplexityRestoration,RiparianRestorationandManagement,FloodplainReconnection,BrookTroutManagement</t>
+          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannelandOff-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>Contaminants,Flow-SummerBaseFlow,Off-Channel-Side-Channels,Temperature-AdultSpawning,Cover-Wood,Off-Channel-Floodplain,BrookTrout</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z119">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
@@ -18435,30 +17255,30 @@
       </c>
       <c r="AB119" t="inlineStr">
         <is>
-          <t>Contaminants,Off-Channel-Side-Channels,Temperature-AdultSpawning,Off-Channel-Floodplain,BrookTrout</t>
+          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
         </is>
       </c>
       <c r="AC119">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD119" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t>Flow-SummerBaseFlow,Cover-Wood</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AF119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 07</t>
+          <t>Wenatchee River Beaver 13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -18531,54 +17351,44 @@
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U120" t="inlineStr">
-        <is>
-          <t>NA</t>
+          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>Winter Rearing,Summer Rearing</t>
+          <t>Summer Rearing,Holding and Maturation,Spawning and Incubation,Fry,Winter Rearing</t>
         </is>
       </c>
       <c r="W120" t="inlineStr">
         <is>
-          <t>ChannelComplexityRestoration,ChannelModification,RiparianRestorationandManagement,FloodplainReconnection,SideChannel/Off-ChannelHabitatRestoration,BankRestoration,FineSedimentManagement,WaterQualityImprovement</t>
+          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannelandOff-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
         </is>
       </c>
       <c r="X120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks,PoolQuantity&amp;Quality,Temperature-Rearing</t>
+          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
         </is>
       </c>
       <c r="Z120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
@@ -18587,49 +17397,49 @@
       </c>
       <c r="AB120" t="inlineStr">
         <is>
-          <t>Cover-Wood,Off-Channel-Floodplain,Off-Channel-Side-Channels,Cover-UndercutBanks</t>
+          <t>Cover-Wood,Temperature-Rearing</t>
         </is>
       </c>
       <c r="AC120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD120" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cover-UndercutBanks,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
         </is>
       </c>
       <c r="AF120">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Wenatchee River Beaver 13</t>
+          <t>Mad River Lower 02</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Wenatchee River-Beaver Creek</t>
+          <t>Lower Mad River</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LF_spring_chinook,LF_steelhead</t>
+          <t>Barriers_pathway</t>
         </is>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -18648,12 +17458,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -18663,116 +17473,86 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Spring_Chinook,Steelhead</t>
+          <t>Spring Chinook,Steelhead</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="P121" t="inlineStr">
-        <is>
-          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="S121" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="U121" t="inlineStr">
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Adult Migration,Fry</t>
+        </is>
+      </c>
+      <c r="W121" t="inlineStr">
+        <is>
+          <t>Fish Passage Restoration</t>
+        </is>
+      </c>
+      <c r="X121">
+        <v>1</v>
+      </c>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>Fish Passage Barriers</t>
+        </is>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="V121" t="inlineStr">
-        <is>
-          <t>Summer Rearing</t>
-        </is>
-      </c>
-      <c r="W121" t="inlineStr">
-        <is>
-          <t>BankRestoration,ChannelModification,RiparianRestorationandManagement,ChannelComplexityRestoration,SideChannel/Off-ChannelHabitatRestoration,FineSedimentManagement,WaterQualityImprovement</t>
-        </is>
-      </c>
-      <c r="X121">
-        <v>7</v>
-      </c>
-      <c r="Y121" t="inlineStr">
-        <is>
-          <t>Cover-UndercutBanks,Cover-Wood,Off-Channel-Side-Channels,PoolQuantity&amp;Quality,Temperature-Rearing</t>
-        </is>
-      </c>
-      <c r="Z121">
-        <v>5</v>
-      </c>
-      <c r="AA121" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>Cover-Wood,Temperature-Rearing</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AC121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD121" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t>Cover-UndercutBanks,Off-Channel-Side-Channels,PoolQuantity&amp;Quality</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AF121">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mad River Lower 02</t>
+          <t>Big Meadow Creek 01</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lower Mad River</t>
+          <t>Big Meadow Creek</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -18820,22 +17600,22 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
+      <c r="O122" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Summer Rearing,Winter Rearing,Adult Migration,Spawning and Incubation,Fry</t>
         </is>
       </c>
       <c r="W122" t="inlineStr">
@@ -18884,7 +17664,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Big Meadow Creek 01</t>
+          <t>Icicle Creek Lower 04</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -18894,7 +17674,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Big Meadow Creek</t>
+          <t>Lower Icicle Creek</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -18942,22 +17722,22 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
+          <t>Spring Chinook,Steelhead</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
+      <c r="O123" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Holding,Spawning and Incubation,Fry Colonization,Summer Rearing,Winter Rearing,Smolt Outmigration,Holding and Maturation,Fry</t>
         </is>
       </c>
       <c r="W123" t="inlineStr">
@@ -19006,7 +17786,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Icicle Creek Lower 04</t>
+          <t>Mission Creek 01</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -19016,7 +17796,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lower Icicle Creek</t>
+          <t>Mission Creek-Brender Creek</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -19064,22 +17844,22 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="W124" t="inlineStr">
@@ -19128,7 +17908,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mission Creek 01</t>
+          <t>Mission Creek 02</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -19186,22 +17966,22 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
+          <t>Steelhead</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult Migration,Spawning and Incubation,Fry,Winter Rearing,Smolt Outmigration</t>
         </is>
       </c>
       <c r="W125" t="inlineStr">
@@ -19244,128 +18024,6 @@
         </is>
       </c>
       <c r="AF125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mission Creek 02</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Mission Creek-Brender Creek</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Barriers_pathway</t>
-        </is>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W126" t="inlineStr">
-        <is>
-          <t>Fish Passage Restoration</t>
-        </is>
-      </c>
-      <c r="X126">
-        <v>1</v>
-      </c>
-      <c r="Y126" t="inlineStr">
-        <is>
-          <t>Fish Passage Barriers</t>
-        </is>
-      </c>
-      <c r="Z126">
-        <v>1</v>
-      </c>
-      <c r="AA126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC126">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AE126" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AF126">
         <v>0</v>
       </c>
     </row>
